--- a/ASSIGNMENTS/skishopdata.xlsx
+++ b/ASSIGNMENTS/skishopdata.xlsx
@@ -1,14 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22188" windowHeight="9000" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Item_Info" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Inventory_Levels" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Orders_Info" sheetId="3" r:id="rId6"/>
+    <sheet name="Item_Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory_Levels" sheetId="2" r:id="rId2"/>
+    <sheet name="Orders_Info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -231,75 +247,917 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -489,27 +1347,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.71"/>
-    <col customWidth="1" min="2" max="2" width="12.43"/>
-    <col customWidth="1" min="3" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="16.43"/>
-    <col customWidth="1" min="6" max="26" width="10.71"/>
+    <col min="1" max="1" width="10.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="12.4259259259259" customWidth="1"/>
+    <col min="3" max="4" width="10.712962962963" customWidth="1"/>
+    <col min="5" max="5" width="16.4259259259259" customWidth="1"/>
+    <col min="6" max="26" width="10.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,9 +1389,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.4" spans="1:6">
       <c r="A2" s="1">
-        <v>10001.0</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -549,9 +1409,9 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.4" spans="1:6">
       <c r="A3" s="1">
-        <v>10002.0</v>
+        <v>10002</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -569,9 +1429,9 @@
         <v>8.79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.4" spans="1:6">
       <c r="A4" s="1">
-        <v>10003.0</v>
+        <v>10003</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -589,9 +1449,9 @@
         <v>17.59</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.4" spans="1:6">
       <c r="A5" s="1">
-        <v>10004.0</v>
+        <v>10004</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -609,9 +1469,9 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.4" spans="1:6">
       <c r="A6" s="1">
-        <v>10005.0</v>
+        <v>10005</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -629,9 +1489,9 @@
         <v>87.99</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.4" spans="1:6">
       <c r="A7" s="1">
-        <v>10006.0</v>
+        <v>10006</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
@@ -649,9 +1509,9 @@
         <v>70.39</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.4" spans="1:6">
       <c r="A8" s="1">
-        <v>10007.0</v>
+        <v>10007</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -669,9 +1529,9 @@
         <v>105.59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.4" spans="1:6">
       <c r="A9" s="1">
-        <v>10008.0</v>
+        <v>10008</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -689,9 +1549,9 @@
         <v>87.99</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="14.4" spans="1:6">
       <c r="A10" s="1">
-        <v>10009.0</v>
+        <v>10009</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
@@ -709,9 +1569,9 @@
         <v>175.99</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.4" spans="1:6">
       <c r="A11" s="1">
-        <v>10010.0</v>
+        <v>10010</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -729,9 +1589,9 @@
         <v>527.99</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.4" spans="1:6">
       <c r="A12" s="1">
-        <v>10011.0</v>
+        <v>10011</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -749,9 +1609,9 @@
         <v>114.39</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="14.4" spans="1:6">
       <c r="A13" s="1">
-        <v>10012.0</v>
+        <v>10012</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
@@ -769,9 +1629,9 @@
         <v>131.99</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.4" spans="1:6">
       <c r="A14" s="1">
-        <v>10013.0</v>
+        <v>10013</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>24</v>
@@ -1770,30 +2630,30 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.71"/>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
-    <col customWidth="1" min="3" max="3" width="18.29"/>
-    <col customWidth="1" min="4" max="26" width="8.86"/>
+    <col min="1" max="1" width="17.712962962963" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18.287037037037" customWidth="1"/>
+    <col min="4" max="26" width="8.86111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.4" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,100 +2661,100 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.4" spans="1:2">
       <c r="A2" s="1">
-        <v>10001.0</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" spans="1:2">
       <c r="A3" s="1">
-        <v>10002.0</v>
+        <v>10002</v>
       </c>
       <c r="B3" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:2">
       <c r="A4" s="1">
-        <v>10003.0</v>
+        <v>10003</v>
       </c>
       <c r="B4" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:2">
       <c r="A5" s="1">
-        <v>10004.0</v>
+        <v>10004</v>
       </c>
       <c r="B5" s="1">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:2">
       <c r="A6" s="1">
-        <v>10005.0</v>
+        <v>10005</v>
       </c>
       <c r="B6" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="1:2">
       <c r="A7" s="1">
-        <v>10006.0</v>
+        <v>10006</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="1:2">
       <c r="A8" s="1">
-        <v>10007.0</v>
+        <v>10007</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="1:2">
       <c r="A9" s="1">
-        <v>10008.0</v>
+        <v>10008</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="14.4" spans="1:2">
       <c r="A10" s="1">
-        <v>10009.0</v>
+        <v>10009</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" spans="1:2">
       <c r="A11" s="1">
-        <v>10010.0</v>
+        <v>10010</v>
       </c>
       <c r="B11" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" ht="14.4" spans="1:2">
       <c r="A12" s="1">
-        <v>10011.0</v>
+        <v>10011</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="14.4" spans="1:2">
       <c r="A13" s="1">
-        <v>10012.0</v>
+        <v>10012</v>
       </c>
       <c r="B13" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -2878,31 +3738,31 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.57"/>
-    <col customWidth="1" min="2" max="2" width="22.57"/>
-    <col customWidth="1" min="3" max="7" width="10.71"/>
-    <col customWidth="1" min="8" max="8" width="49.14"/>
-    <col customWidth="1" min="9" max="26" width="10.71"/>
+    <col min="1" max="1" width="19.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="22.5740740740741" customWidth="1"/>
+    <col min="3" max="7" width="10.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="49.1388888888889" customWidth="1"/>
+    <col min="9" max="26" width="10.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.4" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2928,9 +3788,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.4" spans="1:8">
       <c r="A2" s="1">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>35</v>
@@ -2948,9 +3808,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.4" spans="1:8">
       <c r="A3" s="1">
-        <v>100001.0</v>
+        <v>100001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>39</v>
@@ -2968,9 +3828,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.4" spans="1:8">
       <c r="A4" s="1">
-        <v>100002.0</v>
+        <v>100002</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
@@ -2988,9 +3848,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.4" spans="1:8">
       <c r="A5" s="1">
-        <v>100003.0</v>
+        <v>100003</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>45</v>
@@ -3008,9 +3868,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.4" spans="1:11">
       <c r="A6" s="1">
-        <v>100004.0</v>
+        <v>100004</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
@@ -3025,13 +3885,13 @@
         <v>37</v>
       </c>
       <c r="H6" s="2">
-        <v>10001.0</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7">
+        <v>10001</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" ht="14.4" spans="1:8">
       <c r="A7" s="1">
-        <v>100005.0</v>
+        <v>100005</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
@@ -3046,12 +3906,12 @@
         <v>43</v>
       </c>
       <c r="H7" s="2">
-        <v>10010.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="8" ht="14.4" spans="1:8">
       <c r="A8" s="1">
-        <v>100006.0</v>
+        <v>100006</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>49</v>
@@ -3066,12 +3926,12 @@
         <v>43</v>
       </c>
       <c r="H8" s="2">
-        <v>10004.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="9" ht="14.4" spans="1:11">
       <c r="A9" s="1">
-        <v>100007.0</v>
+        <v>100007</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>50</v>
@@ -3088,11 +3948,11 @@
       <c r="H9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" ht="14.4" spans="1:8">
       <c r="A10" s="1">
-        <v>100008.0</v>
+        <v>100008</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>52</v>
@@ -3100,19 +3960,19 @@
       <c r="C10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>99.99</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H10" s="2">
-        <v>10005.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="11" ht="14.4" spans="1:8">
       <c r="A11" s="1">
-        <v>100009.0</v>
+        <v>100009</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -3130,9 +3990,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.4" spans="1:8">
       <c r="A12" s="1">
-        <v>100010.0</v>
+        <v>100010</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>50</v>
@@ -3150,9 +4010,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="14.4" spans="1:8">
       <c r="A13" s="1">
-        <v>100011.0</v>
+        <v>100011</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>50</v>
@@ -3167,12 +4027,12 @@
         <v>43</v>
       </c>
       <c r="H13" s="2">
-        <v>10005.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="14" ht="14.4" spans="1:8">
       <c r="A14" s="1">
-        <v>100012.0</v>
+        <v>100012</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>56</v>
@@ -3190,9 +4050,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.4" spans="1:8">
       <c r="A15" s="1">
-        <v>100013.0</v>
+        <v>100013</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>58</v>
@@ -3210,9 +4070,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.4" spans="1:8">
       <c r="A16" s="1">
-        <v>100014.0</v>
+        <v>100014</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>60</v>
@@ -3227,12 +4087,12 @@
         <v>37</v>
       </c>
       <c r="H16" s="2">
-        <v>10014.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10014</v>
+      </c>
+    </row>
+    <row r="17" ht="14.4" spans="1:8">
       <c r="A17" s="1">
-        <v>100020.0</v>
+        <v>100020</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>35</v>
@@ -3247,12 +4107,12 @@
         <v>37</v>
       </c>
       <c r="H17" s="2">
-        <v>10007.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="18" ht="14.4" spans="1:8">
       <c r="A18" s="1">
-        <v>100021.0</v>
+        <v>100021</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>62</v>
@@ -3267,12 +4127,12 @@
         <v>40</v>
       </c>
       <c r="H18" s="2">
-        <v>10010.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>10010</v>
+      </c>
+    </row>
+    <row r="19" ht="14.4" spans="1:8">
       <c r="A19" s="1">
-        <v>100022.0</v>
+        <v>100022</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>63</v>
@@ -3290,9 +4150,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="14.4" spans="1:8">
       <c r="A20" s="1">
-        <v>100023.0</v>
+        <v>100023</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
@@ -3307,12 +4167,12 @@
         <v>40</v>
       </c>
       <c r="H20" s="2">
-        <v>10004.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>10004</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:8">
       <c r="A21" s="1">
-        <v>100024.0</v>
+        <v>100024</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>58</v>
@@ -3327,12 +4187,12 @@
         <v>40</v>
       </c>
       <c r="H21" s="2">
-        <v>10005.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
+        <v>10005</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:8">
       <c r="A22" s="1">
-        <v>100025.0</v>
+        <v>100025</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>65</v>
@@ -3347,12 +4207,12 @@
         <v>43</v>
       </c>
       <c r="H22" s="2">
-        <v>10008.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
+        <v>10008</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:8">
       <c r="A23" s="1">
-        <v>100026.0</v>
+        <v>100026</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>66</v>
@@ -3367,12 +4227,12 @@
         <v>37</v>
       </c>
       <c r="H23" s="2">
-        <v>10001.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:8">
       <c r="A24" s="1">
-        <v>100027.0</v>
+        <v>100027</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>49</v>
@@ -3387,12 +4247,12 @@
         <v>43</v>
       </c>
       <c r="H24" s="2">
-        <v>10002.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
+        <v>10002</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:8">
       <c r="A25" s="1">
-        <v>100031.0</v>
+        <v>100031</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>68</v>
@@ -3410,9 +4270,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" ht="15.75" customHeight="1" spans="1:8">
       <c r="A26" s="1">
-        <v>100032.0</v>
+        <v>100032</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>68</v>
@@ -3427,12 +4287,12 @@
         <v>40</v>
       </c>
       <c r="H26" s="2">
-        <v>10006.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+        <v>10006</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:8">
       <c r="A27" s="1">
-        <v>100033.0</v>
+        <v>100033</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
@@ -3450,9 +4310,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" ht="15.75" customHeight="1" spans="1:8">
       <c r="A28" s="1">
-        <v>100034.0</v>
+        <v>100034</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>45</v>
@@ -3467,7 +4327,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="2">
-        <v>10014.0</v>
+        <v>10014</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -4443,9 +5303,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>